--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0173_Penambahan Leads Prospek.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0173_Penambahan Leads Prospek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F9C7CF-F96D-4C15-AD87-9771603D10D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678E2020-9291-486F-A9C1-1EBB9BA41DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="3630" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCD0173" sheetId="2" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>Berhasil menambahkan Leads Prospek (proses eksisting)</t>
   </si>
   <si>
-    <t>Test Add Leads Prospek</t>
-  </si>
-  <si>
     <t>TEXT3</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Jl. Pasar Minggu</t>
+  </si>
+  <si>
+    <t>Test Add Leads Prospek 02</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,19 +591,19 @@
         <v>15</v>
       </c>
       <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
-        <v>23</v>
-      </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
-      </c>
-      <c r="R1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -639,25 +639,25 @@
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="O2" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="12">
         <v>12970</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
